--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1450618.576848792</v>
+        <v>1424319.970851674</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1737911.484358931</v>
+        <v>2083705.798332966</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4541732.173075102</v>
+        <v>1702443.552109823</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9605299.613516435</v>
+        <v>10852614.83259179</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.39108932486009</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>200.4126510055123</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>63.57678144609376</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>4.44006580438074</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>30.83880050196732</v>
       </c>
       <c r="S5" t="n">
-        <v>108.775530553452</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>101.780687729549</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>226.9736586744963</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>300.2994412657488</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>323.9918595228954</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1299,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>44.19095768640517</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>166.3497666348908</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481181</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>26.64360395382377</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250821</v>
+        <v>45.44580843958671</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229337</v>
+        <v>20.90078060183517</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>143.2940831881954</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>10.43941339835889</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
-        <v>9.435999355739787</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>347.412264242961</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>45.44580843958671</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>20.90078060183517</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1773,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>6.980384243199632</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>412.9169039459368</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>179.7188787253442</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183529</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>48.96389429824345</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>232.6344206187316</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>277.8050612204562</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183529</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>70.98684734308382</v>
       </c>
       <c r="E22" t="n">
-        <v>38.57382892286356</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>88.23851788996306</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>166.9438950833109</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>4.158664542432979</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>23.87977125858911</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>14.73664328357096</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>174.7611531036561</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>44.76059872677006</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>195.2195116854651</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>16.3478381060936</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>33.35146980185879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>162.9688692947906</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>50.1630188544056</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>1624.583944532629</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>1624.583944532629</v>
       </c>
       <c r="E2" t="n">
-        <v>546.109828622464</v>
+        <v>1238.795691934385</v>
       </c>
       <c r="F2" t="n">
-        <v>546.109828622464</v>
+        <v>827.8097871447771</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>409.845979042964</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,10 +4348,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1993.546461473041</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4421,31 +4421,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>546.4805193761946</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>227.427697035952</v>
       </c>
       <c r="E4" t="n">
-        <v>663.910013048764</v>
+        <v>227.427697035952</v>
       </c>
       <c r="F4" t="n">
-        <v>517.0200655508536</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>534.603677789272</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C5" t="n">
-        <v>534.603677789272</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>534.603677789272</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>534.603677789272</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>534.603677789272</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2665.998787480882</v>
       </c>
       <c r="S5" t="n">
-        <v>2587.274817731907</v>
+        <v>2489.821299795052</v>
       </c>
       <c r="T5" t="n">
-        <v>2368.64015070397</v>
+        <v>2489.821299795052</v>
       </c>
       <c r="U5" t="n">
-        <v>2368.64015070397</v>
+        <v>2489.821299795052</v>
       </c>
       <c r="V5" t="n">
-        <v>2037.577263360399</v>
+        <v>2489.821299795052</v>
       </c>
       <c r="W5" t="n">
-        <v>1684.808608090285</v>
+        <v>2137.052644524937</v>
       </c>
       <c r="X5" t="n">
-        <v>1311.342849829206</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="Y5" t="n">
-        <v>921.2035178533938</v>
+        <v>1763.586886263858</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.6879402326643</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C7" t="n">
-        <v>156.7517573047574</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D8" t="n">
-        <v>1177.981643776797</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>792.1933911785532</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>381.2074863889456</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>550.798971477663</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>403.9090239797526</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>234.9092237180851</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>570.4247794971948</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>781.1711973675267</v>
+        <v>1397.061718429193</v>
       </c>
       <c r="C11" t="n">
-        <v>412.2086804271149</v>
+        <v>1397.061718429193</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036442</v>
+        <v>1038.796019822443</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036442</v>
+        <v>653.0077672241987</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036442</v>
+        <v>242.0218624345911</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036442</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036442</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036442</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J11" t="n">
-        <v>169.710838053314</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733123</v>
+        <v>666.0988071604017</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224068</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280442</v>
+        <v>1850.629876389912</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977173</v>
+        <v>2477.937544449758</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642688</v>
+        <v>3025.098749216835</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791251</v>
+        <v>3454.41379555613</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018221</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548714</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548714</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548714</v>
+        <v>3484.789894598741</v>
       </c>
       <c r="U11" t="n">
-        <v>2615.207670282225</v>
+        <v>3231.098191343892</v>
       </c>
       <c r="V11" t="n">
-        <v>2284.144782938654</v>
+        <v>2900.035304000321</v>
       </c>
       <c r="W11" t="n">
-        <v>1931.37612766854</v>
+        <v>2547.266648730207</v>
       </c>
       <c r="X11" t="n">
-        <v>1557.91036940746</v>
+        <v>2173.800890469127</v>
       </c>
       <c r="Y11" t="n">
-        <v>1167.771037431648</v>
+        <v>1783.661558493315</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036442</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204942</v>
+        <v>192.6510469835162</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615926</v>
+        <v>522.0794512893258</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572642</v>
+        <v>1026.440991155444</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417903</v>
+        <v>1205.938327510049</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517454</v>
+        <v>1452.219619273624</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537798</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036442</v>
+        <v>365.6232407944253</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036442</v>
+        <v>365.6232407944253</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036442</v>
+        <v>365.6232407944253</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036442</v>
+        <v>220.8817426245309</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036442</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036442</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036442</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036442</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036442</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866325</v>
+        <v>175.0397247222303</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477908</v>
+        <v>359.8727196230485</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658206</v>
+        <v>565.1423203422863</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502495</v>
+        <v>770.9656851783905</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594895</v>
+        <v>945.0605805669892</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064336</v>
+        <v>1070.508157165605</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064336</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R13" t="n">
-        <v>717.5841221878893</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S13" t="n">
-        <v>717.5841221878893</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T13" t="n">
-        <v>490.275934856491</v>
+        <v>848.2972798983295</v>
       </c>
       <c r="U13" t="n">
-        <v>490.275934856491</v>
+        <v>848.2972798983295</v>
       </c>
       <c r="V13" t="n">
-        <v>235.5914466506041</v>
+        <v>593.6127916924427</v>
       </c>
       <c r="W13" t="n">
-        <v>235.5914466506041</v>
+        <v>593.6127916924427</v>
       </c>
       <c r="X13" t="n">
-        <v>235.5914466506041</v>
+        <v>365.6232407944253</v>
       </c>
       <c r="Y13" t="n">
-        <v>235.5914466506041</v>
+        <v>365.6232407944253</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1321.530002831497</v>
+        <v>1629.293697226963</v>
       </c>
       <c r="C14" t="n">
-        <v>952.5674858910851</v>
+        <v>1260.331180286551</v>
       </c>
       <c r="D14" t="n">
-        <v>952.5674858910851</v>
+        <v>902.0654816798008</v>
       </c>
       <c r="E14" t="n">
-        <v>952.5674858910851</v>
+        <v>902.0654816798008</v>
       </c>
       <c r="F14" t="n">
-        <v>952.5674858910851</v>
+        <v>491.0795768901932</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>666.0988071604017</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280443</v>
+        <v>1850.629876389912</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>2477.937544449758</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.843319642689</v>
+        <v>3025.098749216835</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>3454.413795556129</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548715</v>
+        <v>3699.589756331029</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548715</v>
+        <v>3543.374718827857</v>
       </c>
       <c r="T14" t="n">
-        <v>2632.58908906817</v>
+        <v>3328.574857095568</v>
       </c>
       <c r="U14" t="n">
-        <v>2378.827303706261</v>
+        <v>3074.883153840719</v>
       </c>
       <c r="V14" t="n">
-        <v>2047.764416362691</v>
+        <v>2743.820266497149</v>
       </c>
       <c r="W14" t="n">
-        <v>1694.995761092577</v>
+        <v>2392.898787463855</v>
       </c>
       <c r="X14" t="n">
-        <v>1321.530002831497</v>
+        <v>2019.433029202775</v>
       </c>
       <c r="Y14" t="n">
-        <v>1321.530002831497</v>
+        <v>1629.293697226963</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036444</v>
+        <v>192.6510469835162</v>
       </c>
       <c r="K15" t="n">
-        <v>309.1903022614629</v>
+        <v>522.0794512893258</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>1026.440991155444</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1205.938327510049</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1452.219619273624</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>81.04268830156971</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>81.04268830156971</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064342</v>
+        <v>81.04268830156971</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816298</v>
+        <v>81.04268830156971</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837194</v>
+        <v>81.04268830156971</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220518</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="I16" t="n">
-        <v>99.5995062532301</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866326</v>
+        <v>175.0397247222303</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>359.8727196230485</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>565.1423203422863</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>770.9656851783905</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>945.0605805669892</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>1070.508157165605</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>819.2419883800777</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>529.8248183431172</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>301.8352674450998</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>81.04268830156971</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2196.616170759898</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>1827.653653819486</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1469.387955212736</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1083.599702614492</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>672.6137978248842</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>255.5260160613116</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>73.99179512662052</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>73.99179512662052</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403564</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>666.0988071604011</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.9120654066</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>2477.937544449756</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3025.098749216832</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>3454.413795556126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>3699.589756331026</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>3699.589756331026</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>3699.589756331026</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>3699.589756331026</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>3699.589756331026</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3699.589756331026</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3346.821101060912</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>2973.355342799832</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2583.21601082402</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>73.99179512662052</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>192.6510469835159</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>522.0794512893252</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1026.440991155443</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1205.938327510047</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1452.219619273625</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2001.655628026347</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2425.623396507183</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>123.4502742157553</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C19" t="n">
-        <v>123.4502742157553</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D19" t="n">
-        <v>123.4502742157553</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E19" t="n">
-        <v>123.4502742157553</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F19" t="n">
-        <v>123.4502742157553</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>73.99179512662052</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>73.99179512662052</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>73.99179512662052</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>73.99179512662052</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>175.03972472223</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>359.872719623048</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>565.1423203422855</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>770.9656851783894</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>945.0605805669879</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>866.4861918383683</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>640.8569951507333</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>640.8569951507333</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>640.8569951507333</v>
+        <v>1263.932007306658</v>
       </c>
       <c r="W19" t="n">
-        <v>351.4398251137727</v>
+        <v>1263.932007306658</v>
       </c>
       <c r="X19" t="n">
-        <v>123.4502742157553</v>
+        <v>1263.932007306658</v>
       </c>
       <c r="Y19" t="n">
-        <v>123.4502742157553</v>
+        <v>1043.139428163128</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2015.081949825207</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>1646.119432884795</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.853734278045</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>902.0654816798005</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>491.079576890193</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>73.9917951266205</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>73.9917951266205</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403563</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>666.098807160401</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216832</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>3699.589756331025</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>3699.589756331025</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>3445.898053076176</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3445.898053076176</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3165.28688012622</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>2791.82112186514</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2401.681789889329</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>220.8126299914995</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>192.6510469835159</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>522.0794512893252</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1026.440991155443</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1253.562877620961</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1452.219619273625</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2001.655628026347</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2425.623396507183</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>556.519755650985</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="C22" t="n">
-        <v>387.5835727230781</v>
+        <v>337.0962993456004</v>
       </c>
       <c r="D22" t="n">
-        <v>237.4669333107423</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>198.5034697522943</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>198.5034697522943</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>198.5034697522943</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>198.5034697522943</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>73.9917951266205</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>175.03972472223</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>359.872719623048</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>565.1423203422855</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>770.9656851783894</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>945.0605805669879</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>1073.926476585963</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>784.5093065490023</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X22" t="n">
-        <v>556.519755650985</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y22" t="n">
-        <v>556.519755650985</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="23">
@@ -5992,7 +5992,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6025,13 +6025,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614725</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6183,16 +6183,16 @@
         <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>1186.00103929694</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W25" t="n">
-        <v>896.5838692599799</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X25" t="n">
-        <v>668.5943183619626</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.8017392184324</v>
+        <v>562.3990000507114</v>
       </c>
     </row>
     <row r="26">
@@ -6223,34 +6223,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>826.3487253058607</v>
+        <v>714.6010158349783</v>
       </c>
       <c r="C28" t="n">
-        <v>826.3487253058607</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>1275.130855347408</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X28" t="n">
-        <v>1047.141304449391</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y28" t="n">
-        <v>826.3487253058607</v>
+        <v>896.249480665218</v>
       </c>
     </row>
     <row r="29">
@@ -6463,22 +6463,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899127</v>
@@ -6499,7 +6499,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
@@ -6542,22 +6542,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3941.006808105545</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C31" t="n">
-        <v>3772.070625177638</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D31" t="n">
-        <v>3621.953985765302</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E31" t="n">
-        <v>3474.040892182909</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V31" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W31" t="n">
-        <v>4571.437402977332</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X31" t="n">
-        <v>4343.447852079315</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y31" t="n">
-        <v>4122.655272935785</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6779,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1141.200876391121</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C34" t="n">
-        <v>972.2646934632137</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D34" t="n">
-        <v>822.1480540508779</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.916270557902</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="X34" t="n">
-        <v>1498.916270557902</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y34" t="n">
-        <v>1322.84934122136</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
@@ -6931,16 +6931,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6952,37 +6952,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1387.841167119728</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>1133.156678913841</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>843.7395088768803</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>646.5480829319661</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>425.7555037884359</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,34 +7159,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7259,16 +7259,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1482.403302773969</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383442</v>
+        <v>1482.403302773969</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324574</v>
+        <v>1227.718814568083</v>
       </c>
       <c r="W40" t="n">
-        <v>130.9054447954967</v>
+        <v>938.3016445311218</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,28 +7396,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2525.058920465858</v>
+        <v>582.1916992613344</v>
       </c>
       <c r="L42" t="n">
-        <v>2771.824048372322</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M42" t="n">
-        <v>3540.192194764783</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>4289.159124556162</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>4568.699189774859</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.927113122792</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="C43" t="n">
-        <v>710.3120936331045</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="D43" t="n">
-        <v>560.1954542207687</v>
+        <v>294.7767549727473</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>294.7767549727473</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>147.886807474837</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>874.927113122792</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>874.927113122792</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>874.927113122792</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>874.927113122792</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y43" t="n">
-        <v>874.927113122792</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="44">
@@ -7651,10 +7651,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7666,10 +7666,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>216.9038434870658</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>437.6964226305959</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>216.9038434870658</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719077</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8777,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>346.2692436516239</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>48.10560617263718</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>48.10560617263718</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,25 +9248,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>48.1056061726409</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,25 +9485,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>48.10560617264079</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>171.2966883299256</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>29.47535963978268</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>402.3930806959349</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22704,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>82.85718120047541</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22728,7 +22728,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,19 +22786,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>65.64018225551949</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22947,25 +22947,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>46.83478528866331</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,28 +22986,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23026,7 +23026,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,13 +23223,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>56.01837628787166</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23238,16 +23238,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>246.567137311046</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089716</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.5805635544655</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>3.139879458373741</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853705</v>
+        <v>17.69584188176906</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491437</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>136.225778581799</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>207.012321001918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.828704474452024</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>159.9403923113708</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176906</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>135.3220053498714</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>117.956882256327</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>123.2665578794171</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
-        <v>17.69584188176917</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>129.1731816677914</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>19.50322270509636</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>71.43590749695682</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24132,25 +24132,25 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>77.62862567512853</v>
       </c>
       <c r="E22" t="n">
-        <v>107.8601337237056</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>152.7120966692326</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
-        <v>17.69584188176917</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677914</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>205.3658819001187</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24423,16 +24423,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>163.8991254338649</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>58.76576030572622</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>144.4568084757794</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>194.7048820935057</v>
       </c>
     </row>
     <row r="29">
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>130.6844047393603</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>43.82350024843873</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>241.7623996098209</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>30.49014370357204</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>205.1997229522956</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>4.277951803837226</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>116.330549608972</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>51.71984429841024</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>48.00368395686547</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26076,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>702824.1735731203</v>
+        <v>994108.0333724422</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>702824.1735731203</v>
+        <v>994108.0333724422</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>702824.1735731201</v>
+        <v>994108.0333724422</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>702824.1735731199</v>
+        <v>818599.3268267468</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>702824.1735731201</v>
+        <v>818599.3268267468</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>818599.3268267465</v>
+        <v>945598.6813359332</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>818599.3268267466</v>
+        <v>945598.6813359334</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>945598.6813359333</v>
+        <v>945598.6813359334</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>945598.6813359335</v>
+        <v>945598.6813359332</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>945598.6813359333</v>
+        <v>945598.6813359334</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>945598.6813359334</v>
+        <v>945598.6813359333</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173334</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>318067.8710173334</v>
+        <v>371509.2212626563</v>
       </c>
       <c r="F2" t="n">
-        <v>318067.8710173334</v>
+        <v>371509.2212626563</v>
       </c>
       <c r="G2" t="n">
-        <v>371509.2212626559</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="H2" t="n">
-        <v>371509.2212626557</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="I2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114796</v>
       </c>
       <c r="J2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="K2" t="n">
+        <v>430131.9657114797</v>
+      </c>
+      <c r="L2" t="n">
         <v>430131.9657114798</v>
-      </c>
-      <c r="L2" t="n">
-        <v>430131.9657114797</v>
       </c>
       <c r="M2" t="n">
         <v>430131.9657114797</v>
       </c>
       <c r="N2" t="n">
+        <v>430131.9657114797</v>
+      </c>
+      <c r="O2" t="n">
         <v>430131.9657114798</v>
       </c>
-      <c r="O2" t="n">
-        <v>430131.9657114796</v>
-      </c>
       <c r="P2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>248146.7686188439</v>
       </c>
       <c r="F3" t="n">
-        <v>2.695895773285884e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236417.652000455</v>
+        <v>263762.8892659094</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>255532.1595990993</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>62453.05588965323</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>60309.5871370479</v>
+        <v>69864.884849911</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9371.018034361485</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>9371.018034361485</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>9371.018034361483</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>9371.018034361485</v>
+        <v>8673.279618076547</v>
       </c>
       <c r="F4" t="n">
-        <v>9371.018034361483</v>
+        <v>8673.279618076547</v>
       </c>
       <c r="G4" t="n">
-        <v>8673.279618076551</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>8673.279618076551</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
         <v>7916.731656007484</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340943</v>
+        <v>69171.54328360147</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>69171.54328360144</v>
       </c>
       <c r="G5" t="n">
-        <v>69171.54328360138</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>69171.54328360136</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-364130.104294982</v>
+        <v>-369171.0325685188</v>
       </c>
       <c r="C6" t="n">
-        <v>225837.7749195625</v>
+        <v>220796.8466460257</v>
       </c>
       <c r="D6" t="n">
-        <v>225837.7749195625</v>
+        <v>220796.8466460256</v>
       </c>
       <c r="E6" t="n">
-        <v>259465.374919563</v>
+        <v>41878.36828019354</v>
       </c>
       <c r="F6" t="n">
-        <v>259465.3749195621</v>
+        <v>290025.1368990373</v>
       </c>
       <c r="G6" t="n">
-        <v>57246.74636052296</v>
+        <v>65490.42758112452</v>
       </c>
       <c r="H6" t="n">
-        <v>293664.3983609778</v>
+        <v>329253.3168470339</v>
       </c>
       <c r="I6" t="n">
-        <v>74695.7485076564</v>
+        <v>329253.3168470338</v>
       </c>
       <c r="J6" t="n">
-        <v>153804.6889141628</v>
+        <v>152830.097654441</v>
       </c>
       <c r="K6" t="n">
-        <v>330227.9081067557</v>
+        <v>329253.3168470339</v>
       </c>
       <c r="L6" t="n">
-        <v>330227.9081067556</v>
+        <v>329253.316847034</v>
       </c>
       <c r="M6" t="n">
-        <v>330227.9081067556</v>
+        <v>266800.2609573808</v>
       </c>
       <c r="N6" t="n">
-        <v>330227.9081067557</v>
+        <v>329253.3168470339</v>
       </c>
       <c r="O6" t="n">
-        <v>269918.3209697076</v>
+        <v>259388.4319971231</v>
       </c>
       <c r="P6" t="n">
-        <v>330227.9081067556</v>
+        <v>329253.316847034</v>
       </c>
     </row>
   </sheetData>
@@ -26737,37 +26737,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170862</v>
+        <v>593.4761003380645</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380645</v>
       </c>
       <c r="G3" t="n">
-        <v>593.4761003380636</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>593.4761003380636</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26798,16 +26798,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545551</v>
+        <v>924.8974390827575</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545555</v>
+        <v>924.8974390827573</v>
       </c>
       <c r="G4" t="n">
-        <v>924.8974390827565</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827563</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>215.7324361209779</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>215.732436120977</v>
+        <v>236.9063051160358</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>236.9063051160366</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>250.6101663282019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>250.610166328201</v>
+        <v>290.3162041708158</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>290.3162041708168</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>250.6101663282019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>250.610166328201</v>
+        <v>290.3162041708158</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>250.6101663282019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>250.610166328201</v>
+        <v>290.3162041708158</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>123.5101217588449</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,22 +27545,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>140.9809822185505</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.63960207284439</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>59.30821556748145</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>64.97345050525871</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>111.97993115539</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340044</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140998</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5445733255446</v>
+        <v>91.97984867651553</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727434</v>
+        <v>202.4946418937399</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081575</v>
+        <v>303.4869768779018</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630667</v>
+        <v>376.5024309712527</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405364</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338301</v>
+        <v>425.7102483359666</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119863</v>
+        <v>401.9861157822515</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954664</v>
+        <v>343.0858495426697</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044135</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633787</v>
+        <v>149.8691179411495</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727379</v>
+        <v>54.36718245810512</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473546</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141101</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188906</v>
+        <v>12.328626159853</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890686</v>
+        <v>43.95082441182837</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396467</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649101</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478005</v>
+        <v>277.1701353512819</v>
       </c>
       <c r="M12" t="n">
-        <v>205.870296998312</v>
+        <v>323.4444746842451</v>
       </c>
       <c r="N12" t="n">
-        <v>211.3190711736698</v>
+        <v>332.005087490065</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923045</v>
+        <v>303.7197925947074</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479576</v>
+        <v>243.7619099671571</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639064</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034976</v>
+        <v>79.25705355080797</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131471</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372662</v>
+        <v>5.145325813308312</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619147</v>
+        <v>0.08398246702897143</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078603</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644435</v>
+        <v>9.515075838207007</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492003</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813572</v>
+        <v>75.66333823490372</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302231</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246923</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M13" t="n">
-        <v>106.7776065917249</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666593</v>
+        <v>163.7702163441089</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175834</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383791</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678002</v>
+        <v>89.61489115104774</v>
       </c>
       <c r="R13" t="n">
-        <v>30.6281993970116</v>
+        <v>48.12020970937813</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695334</v>
+        <v>18.65071613685359</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197221</v>
+        <v>4.57268470752279</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03715511451315606</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>91.97984867651553</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937399</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779018</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>376.5024309712527</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>425.7102483359666</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>401.9861157822515</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>343.0858495426697</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>149.8691179411495</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810512</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>12.328626159853</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>43.95082441182837</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512819</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842451</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>332.005087490065</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947074</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671571</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>79.25705355080797</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308312</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.08398246702897143</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>9.515075838207007</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490372</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441089</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>89.61489115104774</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937813</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685359</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>4.57268470752279</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>24.43391804055152</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651539</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>303.4869768779013</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>376.5024309712522</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>418.9314987074814</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>425.710248335966</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>401.9861157822509</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>54.36718245810503</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>43.9508244118283</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>277.1701353512815</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4444746842446</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>332.0050874900645</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>303.7197925947069</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>243.7619099671568</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080784</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>23.71104985784621</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308304</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>9.515075838206993</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>32.18391704784123</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490361</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>159.109969588995</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>167.7591540676923</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>163.7702163441087</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>151.2683017714134</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.6148911510476</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>48.12020970937806</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522783</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055152</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651539</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>303.4869768779013</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>376.5024309712522</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>418.9314987074814</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>425.710248335966</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822509</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810503</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>43.9508244118283</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>277.1701353512815</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842446</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900645</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>303.7197925947069</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>243.7619099671568</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080784</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>23.71104985784621</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308304</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838206993</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>32.18391704784123</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490361</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>159.109969588995</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>167.7591540676923</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>163.7702163441087</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>151.2683017714134</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.6148911510476</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937806</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522783</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624589</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181309</v>
+        <v>190.5453525391274</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343417</v>
+        <v>407.542538404086</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435299</v>
+        <v>558.3972305517159</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060962</v>
+        <v>638.0987989730419</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492234</v>
+        <v>633.6441091513599</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530449</v>
+        <v>552.6880856233101</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116796</v>
+        <v>433.6515619588828</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898687</v>
+        <v>247.6524856312126</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770682</v>
+        <v>119.8578301584804</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031297</v>
+        <v>332.7559639452622</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713855</v>
+        <v>509.4561008748669</v>
       </c>
       <c r="M12" t="n">
-        <v>410.0055067279176</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N12" t="n">
-        <v>559.31973343389</v>
+        <v>248.7689815793688</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245896</v>
+        <v>554.9858674269925</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735645</v>
+        <v>428.250271192764</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.811094813734</v>
+        <v>233.0438950105732</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713946</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850084</v>
+        <v>186.6999948493113</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535654</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N13" t="n">
-        <v>148.3708461458879</v>
+        <v>207.9023887233375</v>
       </c>
       <c r="O13" t="n">
-        <v>120.866414655798</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873139</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3.452847899353358</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>190.5453525391274</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>407.542538404086</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>558.3972305517159</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>638.0987989730419</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>633.6441091513599</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>552.6880856233101</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>433.6515619588828</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312126</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>119.8578301584804</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>332.7559639452622</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748669</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>248.7689815793688</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>554.9858674269925</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>428.250271192764</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730635</v>
+        <v>233.0438950105732</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493113</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N16" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233375</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.452847899353358</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>407.5425384040855</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517154</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730412</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>633.6441091513592</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233096</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312122</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.8578301584802</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>332.755963945262</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>509.4561008748665</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>181.3104407622263</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>248.7689815793721</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269919</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>428.2502711927636</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>233.0438950105729</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>207.3430310295329</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>175.8534296854531</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.452847899353216</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040855</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517154</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730412</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513592</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233096</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312122</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>119.8578301584802</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>332.755963945262</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748665</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>229.4160469348671</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>200.6633754067311</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>554.9858674269919</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>428.2502711927636</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>233.0438950105729</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>207.3430310295329</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>175.8534296854531</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353216</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>483.6693559063409</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37627,7 +37627,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>321.8721269178649</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
@@ -37879,10 +37879,10 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>236.5687745713073</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1424319.970851674</v>
+        <v>1445739.950556945</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2083705.798332966</v>
+        <v>1737911.484358932</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1702443.552109823</v>
+        <v>4541732.173075099</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10852614.83259179</v>
+        <v>9605299.613516433</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>200.4126510055123</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>119.642122255015</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.44006580438074</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>30.83880050196732</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>180.0657783516306</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>226.9736586744963</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>197.2982592812052</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>300.2994412657488</v>
+        <v>194.851105414506</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1299,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>44.19095768640517</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>245.9555222332798</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>166.3497666348908</v>
+        <v>340.0237825764897</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664346</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958671</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183517</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>143.2940831881954</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>22.02774091494625</v>
       </c>
       <c r="W14" t="n">
-        <v>347.412264242961</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664346</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958671</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183517</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>6.980384243199632</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>70.11928264603833</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>332.576481789415</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>45.44580843958672</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>20.90078060183518</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T18" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,31 +2001,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>17.69584188176907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>18.04928096449948</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>232.6344206187316</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>116.2044210248035</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>45.44580843958671</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>20.90078060183517</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T21" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>70.98684734308382</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>115.8241119626175</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>32.50395556408391</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2493,7 +2493,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>166.9438950833109</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>101.9557483937991</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -2772,7 +2772,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>23.87977125858911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>115.118279051951</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>174.7611531036561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>157.2425576766694</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>44.76059872677006</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>29.3220157029459</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3675,10 +3675,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>16.3478381060936</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>92.39041249234444</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>50.1630188544056</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>73.01852064932137</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
         <v>115.5269768002176</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.546461473041</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C2" t="n">
-        <v>1624.583944532629</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D2" t="n">
-        <v>1624.583944532629</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>1238.795691934385</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>827.8097871447771</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>409.845979042964</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,10 +4348,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.546461473041</v>
+        <v>2345.092285322467</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.546461473041</v>
+        <v>2345.092285322467</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.546461473041</v>
+        <v>2345.092285322467</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.546461473041</v>
+        <v>1954.952953346655</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482877</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>227.427697035952</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>227.427697035952</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064343</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064343</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1763.586886263858</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2665.998787480882</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2489.821299795052</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2489.821299795052</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2489.821299795052</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2489.821299795052</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2137.052644524937</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1763.586886263858</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="Y5" t="n">
-        <v>1763.586886263858</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.8626623130036</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>498.8626623130036</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>498.8626623130036</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W7" t="n">
-        <v>498.8626623130036</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="X7" t="n">
-        <v>498.8626623130036</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="Y7" t="n">
-        <v>498.8626623130036</v>
+        <v>380.6911546495019</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>378.1446555862789</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="C8" t="n">
-        <v>74.81188663097703</v>
+        <v>1310.833184497836</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4843,13 +4843,13 @@
         <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626212</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y8" t="n">
-        <v>764.7444956504007</v>
+        <v>1507.652482896327</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4886,19 +4886,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600561</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>698.7120650600561</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>550.798971477663</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>403.9090239797526</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>234.9092237180851</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
         <v>190.2718927217162</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>479.6890627586768</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>479.6890627586768</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1397.061718429193</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C11" t="n">
-        <v>1397.061718429193</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D11" t="n">
-        <v>1038.796019822443</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="E11" t="n">
-        <v>653.0077672241987</v>
+        <v>808.3872528488505</v>
       </c>
       <c r="F11" t="n">
-        <v>242.0218624345911</v>
+        <v>397.4013480592429</v>
       </c>
       <c r="G11" t="n">
-        <v>73.9917951266206</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>73.9917951266206</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>73.9917951266206</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403566</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>666.0988071604017</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.912065406601</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.629876389912</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449758</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
-        <v>3025.098749216835</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.41379555613</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.58975633103</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.58975633103</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>3699.58975633103</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>3484.789894598741</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>3231.098191343892</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2900.035304000321</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>2547.266648730207</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X11" t="n">
-        <v>2173.800890469127</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y11" t="n">
-        <v>1783.661558493315</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4134795532265</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9604502720995</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0260406108482</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7885856053927</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322776</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914996</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>119.8966521363041</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>73.9917951266206</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>192.6510469835162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>522.0794512893258</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>1026.440991155444</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1205.938327510049</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1452.219619273624</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2001.655628026346</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2425.623396507183</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
-        <v>2656.33685256765</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2635.224952969837</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2485.758163832472</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.76886799256</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.630080503725</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.477972271983</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.240615543781</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.389115338248</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.628816573294</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>365.6232407944253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>365.6232407944253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>365.6232407944253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>220.8817426245309</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>73.9917951266206</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>73.9917951266206</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>73.9917951266206</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>73.9917951266206</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>73.9917951266206</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
-        <v>175.0397247222303</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>359.8727196230485</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422863</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783905</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669892</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>1070.508157165605</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>1073.926476585965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>1073.926476585965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>1073.926476585965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>848.2972798983295</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>848.2972798983295</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V13" t="n">
-        <v>593.6127916924427</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W13" t="n">
-        <v>593.6127916924427</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>365.6232407944253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>365.6232407944253</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1629.293697226963</v>
+        <v>1553.852279424831</v>
       </c>
       <c r="C14" t="n">
-        <v>1260.331180286551</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="D14" t="n">
-        <v>902.0654816798008</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E14" t="n">
-        <v>902.0654816798008</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F14" t="n">
-        <v>491.0795768901932</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G14" t="n">
-        <v>73.99179512662059</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
-        <v>73.99179512662059</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>73.99179512662059</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403566</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604017</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406601</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.629876389912</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449758</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216835</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556129</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.58975633103</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331029</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>3543.374718827857</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T14" t="n">
-        <v>3328.574857095568</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U14" t="n">
-        <v>3074.883153840719</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V14" t="n">
-        <v>2743.820266497149</v>
+        <v>2280.086692956025</v>
       </c>
       <c r="W14" t="n">
-        <v>2392.898787463855</v>
+        <v>1927.31803768591</v>
       </c>
       <c r="X14" t="n">
-        <v>2019.433029202775</v>
+        <v>1553.852279424831</v>
       </c>
       <c r="Y14" t="n">
-        <v>1629.293697226963</v>
+        <v>1553.852279424831</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4134795532265</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9604502720995</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0260406108482</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>504.7885856053927</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322776</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914996</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>119.8966521363041</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>73.99179512662059</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>192.6510469835162</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>522.0794512893258</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>1026.440991155444</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1205.938327510049</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1452.219619273624</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.655628026346</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2425.623396507183</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.33685256765</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2635.224952969837</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2485.758163832472</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.76886799256</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.630080503725</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.477972271983</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.240615543781</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.389115338248</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.628816573294</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>81.04268830156971</v>
+        <v>657.3014259781127</v>
       </c>
       <c r="C16" t="n">
-        <v>81.04268830156971</v>
+        <v>657.3014259781127</v>
       </c>
       <c r="D16" t="n">
-        <v>81.04268830156971</v>
+        <v>507.1847865657769</v>
       </c>
       <c r="E16" t="n">
-        <v>81.04268830156971</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F16" t="n">
-        <v>81.04268830156971</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G16" t="n">
-        <v>73.99179512662059</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H16" t="n">
-        <v>73.99179512662059</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
-        <v>73.99179512662059</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>73.99179512662059</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
-        <v>175.0397247222303</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>359.8727196230485</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422863</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783905</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669892</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165605</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>1073.926476585965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>1073.926476585965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>1073.926476585965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>1073.926476585965</v>
+        <v>657.3014259781127</v>
       </c>
       <c r="V16" t="n">
-        <v>819.2419883800777</v>
+        <v>657.3014259781127</v>
       </c>
       <c r="W16" t="n">
-        <v>529.8248183431172</v>
+        <v>657.3014259781127</v>
       </c>
       <c r="X16" t="n">
-        <v>301.8352674450998</v>
+        <v>657.3014259781127</v>
       </c>
       <c r="Y16" t="n">
-        <v>81.04268830156971</v>
+        <v>657.3014259781127</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2252.153123480453</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>1883.190606540042</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1524.924907933291</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1139.136655335047</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>728.1507505454395</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>392.2149103541112</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>666.0988071604022</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.629876389913</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449759</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216836</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>3454.41379555613</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3368.526868987459</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3015.758213717345</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>2642.292455456265</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2252.153123480453</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363042</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>403.4201994324303</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>907.7817392985485</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1168.937623104804</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1842.143315357586</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>861.4909633328887</v>
+        <v>91.8663828859833</v>
       </c>
       <c r="C19" t="n">
-        <v>692.5547804049818</v>
+        <v>91.8663828859833</v>
       </c>
       <c r="D19" t="n">
-        <v>542.438140992646</v>
+        <v>91.8663828859833</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102529</v>
+        <v>91.8663828859833</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>91.8663828859833</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>91.8663828859833</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>91.8663828859833</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>91.8663828859833</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>175.0397247222303</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>359.8727196230485</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>565.1423203422862</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783903</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669891</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165605</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585964</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1055.694879652126</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1055.694879652126</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>830.0656829644913</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>830.0656829644913</v>
       </c>
       <c r="V19" t="n">
-        <v>1263.932007306658</v>
+        <v>830.0656829644913</v>
       </c>
       <c r="W19" t="n">
-        <v>1263.932007306658</v>
+        <v>540.6485129275308</v>
       </c>
       <c r="X19" t="n">
-        <v>1263.932007306658</v>
+        <v>312.6589620295134</v>
       </c>
       <c r="Y19" t="n">
-        <v>1043.139428163128</v>
+        <v>91.8663828859833</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2134.774920425096</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>1765.812403484685</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>610.7725474900824</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>262.6316941403567</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>666.098807160402</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.629876389912</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449759</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216836</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>3454.41379555613</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>3582.211553275673</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>3582.211553275673</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>3582.211553275673</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3251.148665932102</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>2898.380010661988</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>2524.914252400908</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2134.774920425096</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>192.6510469835162</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>522.0794512893258</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.440991155444</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1205.938327510049</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1452.219619273624</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>506.0324822735073</v>
+        <v>495.3571301266837</v>
       </c>
       <c r="C22" t="n">
-        <v>337.0962993456004</v>
+        <v>495.3571301266837</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>345.240490714348</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>345.240490714348</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>228.2464382268556</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>228.2464382268556</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>175.0397247222303</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>359.8727196230485</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>565.1423203422863</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783905</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669892</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165605</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>784.7743001636443</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>784.7743001636443</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150548</v>
+        <v>495.3571301266837</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170374</v>
+        <v>495.3571301266837</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.0324822735073</v>
+        <v>495.3571301266837</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,13 +6007,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6025,13 +6025,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614725</v>
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>562.3990000507114</v>
+        <v>893.5623804327207</v>
       </c>
       <c r="C25" t="n">
-        <v>562.3990000507114</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D25" t="n">
-        <v>412.2823606383756</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>1020.446367141521</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W25" t="n">
-        <v>731.0291971045608</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X25" t="n">
-        <v>562.3990000507114</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="Y25" t="n">
-        <v>562.3990000507114</v>
+        <v>1075.21084526296</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>714.6010158349783</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C28" t="n">
-        <v>545.6648329070714</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D28" t="n">
-        <v>395.5481934947356</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6420,16 +6420,16 @@
         <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>920.3704617344999</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>920.3704617344999</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y28" t="n">
-        <v>896.249480665218</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="29">
@@ -6478,7 +6478,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899127</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1029.666285013068</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="C31" t="n">
-        <v>860.7301020851612</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D31" t="n">
-        <v>710.6134626728254</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E31" t="n">
-        <v>562.7003690904323</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W31" t="n">
-        <v>1387.841167119728</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X31" t="n">
-        <v>1387.841167119728</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y31" t="n">
-        <v>1211.314749843308</v>
+        <v>920.3704617344999</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,37 +6712,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,28 +6767,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W34" t="n">
-        <v>486.1849922839954</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X34" t="n">
-        <v>486.1849922839954</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y34" t="n">
-        <v>265.3924131404652</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,16 +6931,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7128,19 +7128,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>710.3120936331045</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C40" t="n">
-        <v>710.3120936331045</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D40" t="n">
-        <v>560.1954542207687</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1482.403302773969</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1482.403302773969</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>1227.718814568083</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>938.3016445311218</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X40" t="n">
-        <v>710.3120936331045</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="Y40" t="n">
-        <v>710.3120936331045</v>
+        <v>861.4909633328887</v>
       </c>
     </row>
     <row r="41">
@@ -7411,10 +7411,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7493,25 +7493,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>582.1916992613344</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>444.8933943850831</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C43" t="n">
-        <v>444.8933943850831</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D43" t="n">
-        <v>294.7767549727473</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E43" t="n">
-        <v>294.7767549727473</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F43" t="n">
-        <v>147.886807474837</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1201.374773883447</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>946.6902856775603</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>657.2731156405996</v>
       </c>
       <c r="X43" t="n">
-        <v>665.6859735286132</v>
+        <v>429.2835647425823</v>
       </c>
       <c r="Y43" t="n">
-        <v>444.8933943850831</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7669,10 +7669,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7785,25 +7785,25 @@
         <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>48.10560617263718</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9014,13 +9014,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>48.10560617263718</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928511</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>82.48338126429383</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,25 +9485,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>48.10560617263718</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>171.2966883299256</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22549,13 +22549,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,19 +22600,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>208.11013621512</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22770,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,10 +22837,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22849,7 +22849,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>189.6653223268384</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,19 +22941,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -22962,10 +22962,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>89.22473905538581</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>170.4217863565016</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23074,7 +23074,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23083,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>40.32635200869791</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23263,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>246.567137311046</v>
+        <v>73.76038744430531</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938904</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281402</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>3.139879458373741</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>123.266557879417</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176906</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,28 +23460,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677914</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938904</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>305.7245175551886</v>
       </c>
       <c r="W14" t="n">
-        <v>1.828704474452024</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23658,25 +23658,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>159.9403923113708</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176906</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>216.1625915959394</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>80.34042215652181</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>111.1239007032919</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
-        <v>19.50322270509636</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>38.44846610333673</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24129,28 +24129,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>77.62862567512853</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>29.59693606031377</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>17.69584188176906</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>134.7428655345439</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>58.76576030572622</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>44.47821425277012</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.7048820935057</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>52.12854204667683</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24894,19 +24894,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>43.82350024843873</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>64.30500338171987</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>241.7623996098209</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>117.1119469436233</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25602,7 +25602,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>205.1997229522956</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>133.3192428966927</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>116.330549608972</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25839,10 +25839,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>213.218831749256</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,13 +26025,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>51.71984429841024</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>30.90698584635159</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>994108.0333724422</v>
+        <v>702824.1735731201</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>994108.0333724422</v>
+        <v>702824.1735731201</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>994108.0333724422</v>
+        <v>702824.1735731201</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>818599.3268267468</v>
+        <v>702824.1735731201</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>818599.3268267468</v>
+        <v>702824.1735731203</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>945598.6813359332</v>
+        <v>818599.3268267469</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>945598.6813359334</v>
+        <v>818599.3268267469</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>945598.6813359334</v>
+        <v>945598.6813359333</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>945598.6813359334</v>
+        <v>945598.6813359332</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>945598.6813359334</v>
+        <v>945598.6813359332</v>
       </c>
     </row>
     <row r="16">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="E2" t="n">
-        <v>371509.2212626563</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="F2" t="n">
-        <v>371509.2212626563</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="G2" t="n">
+        <v>371509.2212626562</v>
+      </c>
+      <c r="H2" t="n">
+        <v>371509.2212626562</v>
+      </c>
+      <c r="I2" t="n">
+        <v>430131.9657114795</v>
+      </c>
+      <c r="J2" t="n">
         <v>430131.9657114797</v>
       </c>
-      <c r="H2" t="n">
-        <v>430131.9657114797</v>
-      </c>
-      <c r="I2" t="n">
-        <v>430131.9657114796</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>430131.9657114798</v>
-      </c>
-      <c r="K2" t="n">
-        <v>430131.9657114797</v>
       </c>
       <c r="L2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="M2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="N2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="O2" t="n">
         <v>430131.9657114798</v>
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>248146.7686188439</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>263762.8892659094</v>
+        <v>236417.6520004559</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>255532.1595990981</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62453.05588965323</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69864.884849911</v>
+        <v>60309.58713704812</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>9371.018034361481</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="E4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="G4" t="n">
         <v>8673.279618076547</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>8673.279618076547</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="J4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>7916.731656007484</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007487</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="F5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="G5" t="n">
+        <v>69171.54328360145</v>
+      </c>
+      <c r="H5" t="n">
         <v>69171.54328360147</v>
       </c>
-      <c r="F5" t="n">
-        <v>69171.54328360144</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-369171.0325685188</v>
+        <v>-364736.945669564</v>
       </c>
       <c r="C6" t="n">
-        <v>220796.8466460257</v>
+        <v>225230.9335449806</v>
       </c>
       <c r="D6" t="n">
-        <v>220796.8466460256</v>
+        <v>225230.9335449806</v>
       </c>
       <c r="E6" t="n">
-        <v>41878.36828019354</v>
+        <v>258858.5335449806</v>
       </c>
       <c r="F6" t="n">
-        <v>290025.1368990373</v>
+        <v>258858.5335449807</v>
       </c>
       <c r="G6" t="n">
-        <v>65490.42758112452</v>
+        <v>56882.82021432821</v>
       </c>
       <c r="H6" t="n">
-        <v>329253.3168470339</v>
+        <v>293300.4722147841</v>
       </c>
       <c r="I6" t="n">
-        <v>329253.3168470338</v>
+        <v>74598.28938168513</v>
       </c>
       <c r="J6" t="n">
-        <v>152830.097654441</v>
+        <v>153707.2297881905</v>
       </c>
       <c r="K6" t="n">
-        <v>329253.3168470339</v>
+        <v>330130.4489807835</v>
       </c>
       <c r="L6" t="n">
-        <v>329253.316847034</v>
+        <v>330130.4489807835</v>
       </c>
       <c r="M6" t="n">
-        <v>266800.2609573808</v>
+        <v>330130.4489807836</v>
       </c>
       <c r="N6" t="n">
-        <v>329253.3168470339</v>
+        <v>330130.4489807835</v>
       </c>
       <c r="O6" t="n">
-        <v>259388.4319971231</v>
+        <v>269820.8618437354</v>
       </c>
       <c r="P6" t="n">
-        <v>329253.316847034</v>
+        <v>330130.4489807835</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,37 +26746,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="F3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="G3" t="n">
+        <v>593.4761003380644</v>
+      </c>
+      <c r="H3" t="n">
         <v>593.4761003380645</v>
       </c>
-      <c r="F3" t="n">
-        <v>593.4761003380645</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26798,16 +26798,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="F4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="G4" t="n">
         <v>924.8974390827575</v>
       </c>
-      <c r="F4" t="n">
-        <v>924.8974390827573</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1215.213643253573</v>
-      </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827575</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215.7324361209779</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236.9063051160358</v>
+        <v>215.7324361209778</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>236.9063051160357</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>250.6101663282019</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>290.3162041708158</v>
-      </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>290.3162041708154</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>250.6101663282019</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>290.3162041708158</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>250.6101663282019</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>290.3162041708158</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>123.5101217588449</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27545,22 +27545,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>140.9809822185505</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.63960207284439</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>59.30821556748145</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>64.97345050525871</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>111.97993115539</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.385833569198248</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055156</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651553</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4946418937399</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779018</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712527</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074821</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>425.7102483359666</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822515</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426697</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.6431848457574</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411495</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810512</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916533</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276533498840365</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>12.328626159853</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>43.95082441182837</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>120.6044214847382</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
-        <v>206.1321659070427</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>277.1701353512819</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842451</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>332.005087490065</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>303.7197925947074</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671571</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.9483813607456</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080797</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>23.71104985784624</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308312</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08398246702897143</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070202803888313</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838207007</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784128</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490372</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>124.338107579024</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
-        <v>159.1099695889952</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676925</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7702163441089</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714136</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>129.4361645720919</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.61489115104774</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937813</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
-        <v>18.65071613685359</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>4.57268470752279</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198248</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055156</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651553</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937399</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779018</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712527</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074821</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>425.7102483359666</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822515</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426697</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.6431848457574</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411495</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810512</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916533</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840365</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>12.328626159853</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182837</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6044214847382</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070427</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512819</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842451</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>332.005087490065</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947074</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671571</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607456</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080797</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784624</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308312</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897143</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888313</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838207007</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784128</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490372</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>124.338107579024</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889952</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676925</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441089</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714136</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720919</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104774</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937813</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685359</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>4.57268470752279</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>2.385833569198247</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>24.43391804055155</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>91.9798486765155</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>202.4946418937399</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779017</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>376.5024309712527</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>418.931498707482</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>425.7102483359665</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822514</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>343.0858495426697</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411495</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>54.36718245810511</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358597</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>12.328626159853</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>43.95082441182836</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070426</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>277.1701353512819</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>323.4444746842451</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>332.0050874900649</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>303.7197925947074</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>243.7619099671571</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607455</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080795</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>5.145325813308311</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897141</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838207006</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784127</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>75.6633382349037</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790239</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>163.7702163441089</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104771</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>48.12020970937812</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685359</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>4.572684707522789</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.05837469839390803</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>91.97984867651553</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>202.4946418937399</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779018</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>376.5024309712527</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>425.7102483359666</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822515</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>343.0858495426697</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411495</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>54.36718245810512</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>12.328626159853</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>43.95082441182837</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>277.1701353512819</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>323.4444746842451</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>332.005087490065</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>303.7197925947074</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>243.7619099671571</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080797</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>5.145325813308312</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897143</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838207007</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490372</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>163.7702163441089</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104774</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>48.12020970937813</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685359</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>4.57268470752279</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391274</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>407.542538404086</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517159</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730419</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513599</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233101</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588828</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312126</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.8578301584804</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>332.7559639452622</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748669</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>181.3104407622268</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>248.7689815793688</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269925</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>428.250271192764</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>233.0438950105732</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>102.0686157531411</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
-        <v>186.6999948493113</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295331</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
-        <v>207.9023887233375</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>175.8534296854533</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7147238369854</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353358</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391274</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>407.542538404086</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517159</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730419</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513599</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233101</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588828</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312126</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8578301584804</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452622</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748669</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>181.3104407622268</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>248.7689815793688</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269925</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P15" t="n">
-        <v>428.250271192764</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105732</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531411</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493113</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295331</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233375</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854533</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369854</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353358</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>190.5453525391274</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>407.5425384040859</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517159</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>638.0987989730418</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513598</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>552.68808562331</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588828</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312126</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>332.7559639452622</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>509.4561008748669</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>263.7938220265206</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>680.0057497502851</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>161.1235481502629</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>428.250271192764</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>233.0438950105731</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493113</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233375</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>175.8534296854532</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>3.45284789935333</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>190.5453525391274</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>407.542538404086</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517159</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>638.0987989730419</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513599</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233101</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588828</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312126</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>119.8578301584804</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>332.7559639452622</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>509.4561008748669</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>248.7689815793688</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>554.9858674269925</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>428.250271192764</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>233.0438950105732</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493113</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233375</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>3.452847899353358</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>321.8721269178649</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
